--- a/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
+++ b/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-expansionict/Documents/PKstage/Examen Philip Klok/Examen_E-Expansion/Uitvoering Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D80CD5-9D34-D246-9365-5B0840256FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C404845-09A4-254A-8608-5862CF06D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10700" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -1031,24 +1031,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,14 +1091,19 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1111,13 +1116,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1462,10 +1462,10 @@
   <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1901,8 +1901,8 @@
       <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63">
         <v>2</v>
       </c>
       <c r="E8" s="26"/>
@@ -2003,7 +2003,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="66">
+      <c r="D9" s="64">
         <v>0.5</v>
       </c>
       <c r="E9" s="26"/>
@@ -2104,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="61"/>
-      <c r="D10" s="66">
+      <c r="D10" s="64">
         <v>0.5</v>
       </c>
       <c r="E10" s="26"/>
@@ -2205,7 +2205,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="22"/>
-      <c r="D11" s="66">
+      <c r="D11" s="64">
         <v>0.5</v>
       </c>
       <c r="E11" s="26"/>
@@ -2306,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="22"/>
-      <c r="D12" s="66">
+      <c r="D12" s="64">
         <v>1</v>
       </c>
       <c r="E12" s="26"/>
@@ -2407,7 +2407,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="66">
+      <c r="D13" s="64">
         <v>1</v>
       </c>
       <c r="E13" s="26"/>
@@ -2508,7 +2508,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="66">
+      <c r="D14" s="64">
         <v>1</v>
       </c>
       <c r="E14" s="26"/>
@@ -2611,7 +2611,7 @@
       <c r="C15" s="22">
         <v>45036</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="26"/>
       <c r="F15" s="30">
         <f>IF($D15-SUM($E15:E15)&gt;F$5-SUM(F$7:F14),F$5-SUM(F$7:F14),$D15-SUM($E15:E15))</f>
@@ -2710,7 +2710,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="66">
+      <c r="D16" s="64">
         <v>2.5</v>
       </c>
       <c r="E16" s="26"/>
@@ -2811,7 +2811,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="66"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="26"/>
       <c r="F17" s="30">
         <f>IF($D17-SUM($E17:E17)&gt;F$5-SUM(F$7:F16),F$5-SUM(F$7:F16),$D17-SUM($E17:E17))</f>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="66"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="26"/>
       <c r="F18" s="30">
         <f>IF($D18-SUM($E18:E18)&gt;F$5-SUM(F$7:F17),F$5-SUM(F$7:F17),$D18-SUM($E18:E18))</f>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="66"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="26"/>
       <c r="F19" s="30">
         <f>IF($D19-SUM($E19:E19)&gt;F$5-SUM(F$7:F18),F$5-SUM(F$7:F18),$D19-SUM($E19:E19))</f>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="66"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="26"/>
       <c r="F20" s="30">
         <f>IF($D20-SUM($E20:E20)&gt;F$5-SUM(F$7:F19),F$5-SUM(F$7:F19),$D20-SUM($E20:E20))</f>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="66"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="26"/>
       <c r="F21" s="30">
         <f>IF($D21-SUM($E21:E21)&gt;F$5-SUM(F$7:F20),F$5-SUM(F$7:F20),$D21-SUM($E21:E21))</f>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="66"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="26"/>
       <c r="F22" s="30">
         <f>IF($D22-SUM($E22:E22)&gt;F$5-SUM(F$7:F21),F$5-SUM(F$7:F21),$D22-SUM($E22:E22))</f>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="66"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="26"/>
       <c r="F23" s="30">
         <f>IF($D23-SUM($E23:E23)&gt;F$5-SUM(F$7:F22),F$5-SUM(F$7:F22),$D23-SUM($E23:E23))</f>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="66"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="26"/>
       <c r="F24" s="30">
         <f>IF($D24-SUM($E24:E24)&gt;F$5-SUM(F$7:F23),F$5-SUM(F$7:F23),$D24-SUM($E24:E24))</f>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="66"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="26"/>
       <c r="F25" s="30">
         <f>IF($D25-SUM($E25:E25)&gt;F$5-SUM(F$7:F24),F$5-SUM(F$7:F24),$D25-SUM($E25:E25))</f>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="66"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="26"/>
       <c r="F26" s="30">
         <f>IF($D26-SUM($E26:E26)&gt;F$5-SUM(F$7:F25),F$5-SUM(F$7:F25),$D26-SUM($E26:E26))</f>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="66"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="26"/>
       <c r="F27" s="30">
         <f>IF($D27-SUM($E27:E27)&gt;F$5-SUM(F$7:F26),F$5-SUM(F$7:F26),$D27-SUM($E27:E27))</f>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="66"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="26"/>
       <c r="F28" s="30">
         <f>IF($D28-SUM($E28:E28)&gt;F$5-SUM(F$7:F27),F$5-SUM(F$7:F27),$D28-SUM($E28:E28))</f>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="66"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="26"/>
       <c r="F29" s="30">
         <f>IF($D29-SUM($E29:E29)&gt;F$5-SUM(F$7:F28),F$5-SUM(F$7:F28),$D29-SUM($E29:E29))</f>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="66"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="26"/>
       <c r="F30" s="30">
         <f>IF($D30-SUM($E30:E30)&gt;F$5-SUM(F$7:F29),F$5-SUM(F$7:F29),$D30-SUM($E30:E30))</f>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="66"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="26"/>
       <c r="F31" s="30">
         <f>IF($D31-SUM($E31:E31)&gt;F$5-SUM(F$7:F30),F$5-SUM(F$7:F30),$D31-SUM($E31:E31))</f>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="66"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="26"/>
       <c r="F32" s="30">
         <f>IF($D32-SUM($E32:E32)&gt;F$5-SUM(F$7:F31),F$5-SUM(F$7:F31),$D32-SUM($E32:E32))</f>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="66"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="26"/>
       <c r="F33" s="30">
         <f>IF($D33-SUM($E33:E33)&gt;F$5-SUM(F$7:F32),F$5-SUM(F$7:F32),$D33-SUM($E33:E33))</f>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="66"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="26"/>
       <c r="F34" s="30">
         <f>IF($D34-SUM($E34:E34)&gt;F$5-SUM(F$7:F33),F$5-SUM(F$7:F33),$D34-SUM($E34:E34))</f>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="66"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="26"/>
       <c r="F35" s="30">
         <f>IF($D35-SUM($E35:E35)&gt;F$5-SUM(F$7:F34),F$5-SUM(F$7:F34),$D35-SUM($E35:E35))</f>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="66"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="26"/>
       <c r="F36" s="30">
         <f>IF($D36-SUM($E36:E36)&gt;F$5-SUM(F$7:F35),F$5-SUM(F$7:F35),$D36-SUM($E36:E36))</f>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="66"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="26"/>
       <c r="F37" s="30">
         <f>IF($D37-SUM($E37:E37)&gt;F$5-SUM(F$7:F36),F$5-SUM(F$7:F36),$D37-SUM($E37:E37))</f>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="66"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="26"/>
       <c r="F38" s="30">
         <f>IF($D38-SUM($E38:E38)&gt;F$5-SUM(F$7:F37),F$5-SUM(F$7:F37),$D38-SUM($E38:E38))</f>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="66"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="26"/>
       <c r="F39" s="30">
         <f>IF($D39-SUM($E39:E39)&gt;F$5-SUM(F$7:F38),F$5-SUM(F$7:F38),$D39-SUM($E39:E39))</f>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="66"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="26"/>
       <c r="F40" s="30">
         <f>IF($D40-SUM($E40:E40)&gt;F$5-SUM(F$7:F39),F$5-SUM(F$7:F39),$D40-SUM($E40:E40))</f>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="66"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="26"/>
       <c r="F41" s="30">
         <f>IF($D41-SUM($E41:E41)&gt;F$5-SUM(F$7:F40),F$5-SUM(F$7:F40),$D41-SUM($E41:E41))</f>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="66"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="26"/>
       <c r="F42" s="30">
         <f>IF($D42-SUM($E42:E42)&gt;F$5-SUM(F$7:F41),F$5-SUM(F$7:F41),$D42-SUM($E42:E42))</f>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="66"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="26"/>
       <c r="F43" s="30">
         <f>IF($D43-SUM($E43:E43)&gt;F$5-SUM(F$7:F42),F$5-SUM(F$7:F42),$D43-SUM($E43:E43))</f>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="66"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="26"/>
       <c r="F44" s="30">
         <f>IF($D44-SUM($E44:E44)&gt;F$5-SUM(F$7:F43),F$5-SUM(F$7:F43),$D44-SUM($E44:E44))</f>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="66"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="26"/>
       <c r="F45" s="30">
         <f>IF($D45-SUM($E45:E45)&gt;F$5-SUM(F$7:F44),F$5-SUM(F$7:F44),$D45-SUM($E45:E45))</f>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="66"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="26"/>
       <c r="F46" s="30">
         <f>IF($D46-SUM($E46:E46)&gt;F$5-SUM(F$7:F45),F$5-SUM(F$7:F45),$D46-SUM($E46:E46))</f>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="66"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="26"/>
       <c r="F47" s="30">
         <f>IF($D47-SUM($E47:E47)&gt;F$5-SUM(F$7:F46),F$5-SUM(F$7:F46),$D47-SUM($E47:E47))</f>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="66"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="26"/>
       <c r="F48" s="30">
         <f>IF($D48-SUM($E48:E48)&gt;F$5-SUM(F$7:F47),F$5-SUM(F$7:F47),$D48-SUM($E48:E48))</f>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="66"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="26"/>
       <c r="F49" s="30">
         <f>IF($D49-SUM($E49:E49)&gt;F$5-SUM(F$7:F48),F$5-SUM(F$7:F48),$D49-SUM($E49:E49))</f>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="66"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="26"/>
       <c r="F50" s="30">
         <f>IF($D50-SUM($E50:E50)&gt;F$5-SUM(F$7:F49),F$5-SUM(F$7:F49),$D50-SUM($E50:E50))</f>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="66"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="26"/>
       <c r="F51" s="30">
         <f>IF($D51-SUM($E51:E51)&gt;F$5-SUM(F$7:F50),F$5-SUM(F$7:F50),$D51-SUM($E51:E51))</f>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="66"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="26"/>
       <c r="F52" s="30">
         <f>IF($D52-SUM($E52:E52)&gt;F$5-SUM(F$7:F51),F$5-SUM(F$7:F51),$D52-SUM($E52:E52))</f>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="66"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="26"/>
       <c r="F53" s="30">
         <f>IF($D53-SUM($E53:E53)&gt;F$5-SUM(F$7:F52),F$5-SUM(F$7:F52),$D53-SUM($E53:E53))</f>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="66"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="26"/>
       <c r="F54" s="30">
         <f>IF($D54-SUM($E54:E54)&gt;F$5-SUM(F$7:F53),F$5-SUM(F$7:F53),$D54-SUM($E54:E54))</f>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="66"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="26"/>
       <c r="F55" s="30">
         <f>IF($D55-SUM($E55:E55)&gt;F$5-SUM(F$7:F54),F$5-SUM(F$7:F54),$D55-SUM($E55:E55))</f>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="66"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="26"/>
       <c r="F56" s="30">
         <f>IF($D56-SUM($E56:E56)&gt;F$5-SUM(F$7:F55),F$5-SUM(F$7:F55),$D56-SUM($E56:E56))</f>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="66"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="26"/>
       <c r="F57" s="30">
         <f>IF($D57-SUM($E57:E57)&gt;F$5-SUM(F$7:F56),F$5-SUM(F$7:F56),$D57-SUM($E57:E57))</f>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="66"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="26"/>
       <c r="F58" s="30">
         <f>IF($D58-SUM($E58:E58)&gt;F$5-SUM(F$7:F57),F$5-SUM(F$7:F57),$D58-SUM($E58:E58))</f>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="66"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="26"/>
       <c r="F59" s="30">
         <f>IF($D59-SUM($E59:E59)&gt;F$5-SUM(F$7:F58),F$5-SUM(F$7:F58),$D59-SUM($E59:E59))</f>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="66"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="26"/>
       <c r="F60" s="30">
         <f>IF($D60-SUM($E60:E60)&gt;F$5-SUM(F$7:F59),F$5-SUM(F$7:F59),$D60-SUM($E60:E60))</f>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="66"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="26"/>
       <c r="F61" s="30">
         <f>IF($D61-SUM($E61:E61)&gt;F$5-SUM(F$7:F60),F$5-SUM(F$7:F60),$D61-SUM($E61:E61))</f>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="66"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="26"/>
       <c r="F62" s="30">
         <f>IF($D62-SUM($E62:E62)&gt;F$5-SUM(F$7:F61),F$5-SUM(F$7:F61),$D62-SUM($E62:E62))</f>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="66"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="26"/>
       <c r="F63" s="30">
         <f>IF($D63-SUM($E63:E63)&gt;F$5-SUM(F$7:F62),F$5-SUM(F$7:F62),$D63-SUM($E63:E63))</f>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="66"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="26"/>
       <c r="F64" s="30">
         <f>IF($D64-SUM($E64:E64)&gt;F$5-SUM(F$7:F63),F$5-SUM(F$7:F63),$D64-SUM($E64:E64))</f>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="66"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="26"/>
       <c r="F65" s="30">
         <f>IF($D65-SUM($E65:E65)&gt;F$5-SUM(F$7:F64),F$5-SUM(F$7:F64),$D65-SUM($E65:E65))</f>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
-      <c r="D66" s="66"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="26"/>
       <c r="F66" s="30">
         <f>IF($D66-SUM($E66:E66)&gt;F$5-SUM(F$7:F65),F$5-SUM(F$7:F65),$D66-SUM($E66:E66))</f>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="66"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="26"/>
       <c r="F67" s="30">
         <f>IF($D67-SUM($E67:E67)&gt;F$5-SUM(F$7:F66),F$5-SUM(F$7:F66),$D67-SUM($E67:E67))</f>
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="66"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="26"/>
       <c r="F68" s="30">
         <f>IF($D68-SUM($E68:E68)&gt;F$5-SUM(F$7:F67),F$5-SUM(F$7:F67),$D68-SUM($E68:E68))</f>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="66"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="26"/>
       <c r="F69" s="30">
         <f>IF($D69-SUM($E69:E69)&gt;F$5-SUM(F$7:F68),F$5-SUM(F$7:F68),$D69-SUM($E69:E69))</f>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="66"/>
+      <c r="D70" s="64"/>
       <c r="E70" s="26"/>
       <c r="F70" s="30">
         <f>IF($D70-SUM($E70:E70)&gt;F$5-SUM(F$7:F69),F$5-SUM(F$7:F69),$D70-SUM($E70:E70))</f>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="66"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="26"/>
       <c r="F71" s="30">
         <f>IF($D71-SUM($E71:E71)&gt;F$5-SUM(F$7:F70),F$5-SUM(F$7:F70),$D71-SUM($E71:E71))</f>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="66"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="26"/>
       <c r="F72" s="30">
         <f>IF($D72-SUM($E72:E72)&gt;F$5-SUM(F$7:F71),F$5-SUM(F$7:F71),$D72-SUM($E72:E72))</f>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="66"/>
+      <c r="D73" s="64"/>
       <c r="E73" s="26"/>
       <c r="F73" s="30">
         <f>IF($D73-SUM($E73:E73)&gt;F$5-SUM(F$7:F72),F$5-SUM(F$7:F72),$D73-SUM($E73:E73))</f>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="66"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="26"/>
       <c r="F74" s="30">
         <f>IF($D74-SUM($E74:E74)&gt;F$5-SUM(F$7:F73),F$5-SUM(F$7:F73),$D74-SUM($E74:E74))</f>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="66"/>
+      <c r="D75" s="64"/>
       <c r="E75" s="26"/>
       <c r="F75" s="30">
         <f>IF($D75-SUM($E75:E75)&gt;F$5-SUM(F$7:F74),F$5-SUM(F$7:F74),$D75-SUM($E75:E75))</f>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
-      <c r="D76" s="66"/>
+      <c r="D76" s="64"/>
       <c r="E76" s="26"/>
       <c r="F76" s="30">
         <f>IF($D76-SUM($E76:E76)&gt;F$5-SUM(F$7:F75),F$5-SUM(F$7:F75),$D76-SUM($E76:E76))</f>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="66"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="26"/>
       <c r="F77" s="30">
         <f>IF($D77-SUM($E77:E77)&gt;F$5-SUM(F$7:F76),F$5-SUM(F$7:F76),$D77-SUM($E77:E77))</f>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="66"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="26"/>
       <c r="F78" s="30">
         <f>IF($D78-SUM($E78:E78)&gt;F$5-SUM(F$7:F77),F$5-SUM(F$7:F77),$D78-SUM($E78:E78))</f>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="66"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="26"/>
       <c r="F79" s="30">
         <f>IF($D79-SUM($E79:E79)&gt;F$5-SUM(F$7:F78),F$5-SUM(F$7:F78),$D79-SUM($E79:E79))</f>
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="66"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="26"/>
       <c r="F80" s="30">
         <f>IF($D80-SUM($E80:E80)&gt;F$5-SUM(F$7:F79),F$5-SUM(F$7:F79),$D80-SUM($E80:E80))</f>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="66"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="26"/>
       <c r="F81" s="30">
         <f>IF($D81-SUM($E81:E81)&gt;F$5-SUM(F$7:F80),F$5-SUM(F$7:F80),$D81-SUM($E81:E81))</f>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="66"/>
+      <c r="D82" s="64"/>
       <c r="E82" s="26"/>
       <c r="F82" s="30">
         <f>IF($D82-SUM($E82:E82)&gt;F$5-SUM(F$7:F81),F$5-SUM(F$7:F81),$D82-SUM($E82:E82))</f>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="66"/>
+      <c r="D83" s="64"/>
       <c r="E83" s="26"/>
       <c r="F83" s="30">
         <f>IF($D83-SUM($E83:E83)&gt;F$5-SUM(F$7:F82),F$5-SUM(F$7:F82),$D83-SUM($E83:E83))</f>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="66"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="26"/>
       <c r="F84" s="30">
         <f>IF($D84-SUM($E84:E84)&gt;F$5-SUM(F$7:F83),F$5-SUM(F$7:F83),$D84-SUM($E84:E84))</f>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="66"/>
+      <c r="D85" s="64"/>
       <c r="E85" s="26"/>
       <c r="F85" s="30">
         <f>IF($D85-SUM($E85:E85)&gt;F$5-SUM(F$7:F84),F$5-SUM(F$7:F84),$D85-SUM($E85:E85))</f>
@@ -9504,7 +9504,7 @@
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="66"/>
+      <c r="D86" s="64"/>
       <c r="E86" s="26"/>
       <c r="F86" s="30">
         <f>IF($D86-SUM($E86:E86)&gt;F$5-SUM(F$7:F85),F$5-SUM(F$7:F85),$D86-SUM($E86:E86))</f>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="66"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="26"/>
       <c r="F87" s="30">
         <f>IF($D87-SUM($E87:E87)&gt;F$5-SUM(F$7:F86),F$5-SUM(F$7:F86),$D87-SUM($E87:E87))</f>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="66"/>
+      <c r="D88" s="64"/>
       <c r="E88" s="26"/>
       <c r="F88" s="30">
         <f>IF($D88-SUM($E88:E88)&gt;F$5-SUM(F$7:F87),F$5-SUM(F$7:F87),$D88-SUM($E88:E88))</f>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="66"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="26"/>
       <c r="F89" s="30">
         <f>IF($D89-SUM($E89:E89)&gt;F$5-SUM(F$7:F88),F$5-SUM(F$7:F88),$D89-SUM($E89:E89))</f>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="66"/>
+      <c r="D90" s="64"/>
       <c r="E90" s="26"/>
       <c r="F90" s="30">
         <f>IF($D90-SUM($E90:E90)&gt;F$5-SUM(F$7:F89),F$5-SUM(F$7:F89),$D90-SUM($E90:E90))</f>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
-      <c r="D91" s="66"/>
+      <c r="D91" s="64"/>
       <c r="E91" s="26"/>
       <c r="F91" s="30">
         <f>IF($D91-SUM($E91:E91)&gt;F$5-SUM(F$7:F90),F$5-SUM(F$7:F90),$D91-SUM($E91:E91))</f>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="66"/>
+      <c r="D92" s="64"/>
       <c r="E92" s="26"/>
       <c r="F92" s="30">
         <f>IF($D92-SUM($E92:E92)&gt;F$5-SUM(F$7:F91),F$5-SUM(F$7:F91),$D92-SUM($E92:E92))</f>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="66"/>
+      <c r="D93" s="64"/>
       <c r="E93" s="26"/>
       <c r="F93" s="30">
         <f>IF($D93-SUM($E93:E93)&gt;F$5-SUM(F$7:F92),F$5-SUM(F$7:F92),$D93-SUM($E93:E93))</f>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="66"/>
+      <c r="D94" s="64"/>
       <c r="E94" s="26"/>
       <c r="F94" s="30">
         <f>IF($D94-SUM($E94:E94)&gt;F$5-SUM(F$7:F93),F$5-SUM(F$7:F93),$D94-SUM($E94:E94))</f>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="66"/>
+      <c r="D95" s="64"/>
       <c r="E95" s="26"/>
       <c r="F95" s="30">
         <f>IF($D95-SUM($E95:E95)&gt;F$5-SUM(F$7:F94),F$5-SUM(F$7:F94),$D95-SUM($E95:E95))</f>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="66"/>
+      <c r="D96" s="64"/>
       <c r="E96" s="26"/>
       <c r="F96" s="30">
         <f>IF($D96-SUM($E96:E96)&gt;F$5-SUM(F$7:F95),F$5-SUM(F$7:F95),$D96-SUM($E96:E96))</f>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="66"/>
+      <c r="D97" s="64"/>
       <c r="E97" s="26"/>
       <c r="F97" s="30">
         <f>IF($D97-SUM($E97:E97)&gt;F$5-SUM(F$7:F96),F$5-SUM(F$7:F96),$D97-SUM($E97:E97))</f>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="66"/>
+      <c r="D98" s="64"/>
       <c r="E98" s="26"/>
       <c r="F98" s="30">
         <f>IF($D98-SUM($E98:E98)&gt;F$5-SUM(F$7:F97),F$5-SUM(F$7:F97),$D98-SUM($E98:E98))</f>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
-      <c r="D99" s="66"/>
+      <c r="D99" s="64"/>
       <c r="E99" s="26"/>
       <c r="F99" s="30">
         <f>IF($D99-SUM($E99:E99)&gt;F$5-SUM(F$7:F98),F$5-SUM(F$7:F98),$D99-SUM($E99:E99))</f>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
-      <c r="D100" s="66"/>
+      <c r="D100" s="64"/>
       <c r="E100" s="26"/>
       <c r="F100" s="30">
         <f>IF($D100-SUM($E100:E100)&gt;F$5-SUM(F$7:F99),F$5-SUM(F$7:F99),$D100-SUM($E100:E100))</f>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
-      <c r="D101" s="66"/>
+      <c r="D101" s="64"/>
       <c r="E101" s="26"/>
       <c r="F101" s="30">
         <f>IF($D101-SUM($E101:E101)&gt;F$5-SUM(F$7:F100),F$5-SUM(F$7:F100),$D101-SUM($E101:E101))</f>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
-      <c r="D102" s="66"/>
+      <c r="D102" s="64"/>
       <c r="E102" s="26"/>
       <c r="F102" s="30">
         <f>IF($D102-SUM($E102:E102)&gt;F$5-SUM(F$7:F101),F$5-SUM(F$7:F101),$D102-SUM($E102:E102))</f>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="66"/>
+      <c r="D103" s="64"/>
       <c r="E103" s="26"/>
       <c r="F103" s="30">
         <f>IF($D103-SUM($E103:E103)&gt;F$5-SUM(F$7:F102),F$5-SUM(F$7:F102),$D103-SUM($E103:E103))</f>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="66"/>
+      <c r="D104" s="64"/>
       <c r="E104" s="26"/>
       <c r="F104" s="30">
         <f>IF($D104-SUM($E104:E104)&gt;F$5-SUM(F$7:F103),F$5-SUM(F$7:F103),$D104-SUM($E104:E104))</f>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="21"/>
-      <c r="D105" s="66"/>
+      <c r="D105" s="64"/>
       <c r="E105" s="26"/>
       <c r="F105" s="30">
         <f>IF($D105-SUM($E105:E105)&gt;F$5-SUM(F$7:F104),F$5-SUM(F$7:F104),$D105-SUM($E105:E105))</f>
@@ -11444,7 +11444,7 @@
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="21"/>
-      <c r="D106" s="66"/>
+      <c r="D106" s="64"/>
       <c r="E106" s="26"/>
       <c r="F106" s="30">
         <f>IF($D106-SUM($E106:E106)&gt;F$5-SUM(F$7:F105),F$5-SUM(F$7:F105),$D106-SUM($E106:E106))</f>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="B107" s="53"/>
       <c r="C107" s="54"/>
-      <c r="D107" s="67"/>
+      <c r="D107" s="65"/>
       <c r="E107" s="55"/>
       <c r="F107" s="56">
         <f>IF($D107-SUM($E107:E107)&gt;F$5-SUM(F$7:F106),F$5-SUM(F$7:F106),$D107-SUM($E107:E107))</f>
@@ -11655,17 +11655,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:AG107">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>$C8=F$6</formula>
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>AND(F8&gt;0,MOD(ROW(F8),2)=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>$C8=F$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
       <formula>AND(F8&gt;0,MOD(ROW(F8),2)=0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L107 F6:J107 M6:AG107">
@@ -11704,10 +11704,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="67"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
@@ -11778,32 +11778,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="30" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="028bf07d1ea5979ac6b1ce89894dfd29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3008ab1321543f27ae43808d75fd63db" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12092,10 +12066,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A630C4F3-F22D-4D5C-A63A-5DE6398746F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12119,21 +12131,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A630C4F3-F22D-4D5C-A63A-5DE6398746F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
+++ b/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-expansionict/Documents/PKstage/Examen Philip Klok/Examen_E-Expansion/Uitvoering Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C404845-09A4-254A-8608-5862CF06D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1014CFB2-6CEC-2B44-8BD5-FA51F3B9C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10700" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Project:</t>
   </si>
@@ -304,10 +304,25 @@
     <t>Document Planning &amp; Ontwerp inleveren</t>
   </si>
   <si>
-    <t>Multi-Select Form informatie verzamelen</t>
+    <t>Systeem Test uitvoeren en bespreken</t>
   </si>
   <si>
-    <t xml:space="preserve">Multi-Select Form uitwerken </t>
+    <t>Verbetervoorstellen uitwerken</t>
+  </si>
+  <si>
+    <t>Alle verbetervoorstellen uitoefenen</t>
+  </si>
+  <si>
+    <t>Examenportfolio uitwerken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Step form uitwerken </t>
+  </si>
+  <si>
+    <t>Multi-Step form informatie verzamelen</t>
+  </si>
+  <si>
+    <t>Multi-Step form gereed</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1477,10 @@
   <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="60">
-        <v>45035</v>
+        <v>45040</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="5"/>
@@ -1659,12 +1674,12 @@
         <v>8</v>
       </c>
       <c r="I5" s="14">
-        <f>Uren!$C$8</f>
-        <v>8</v>
+        <f>Uren!J5</f>
+        <v>0</v>
       </c>
       <c r="J5" s="14">
-        <f>Uren!$C$9</f>
-        <v>8</v>
+        <f>Uren!L13</f>
+        <v>0</v>
       </c>
       <c r="K5" s="14">
         <v>8</v>
@@ -1677,10 +1692,12 @@
         <v>8</v>
       </c>
       <c r="N5" s="14">
-        <v>0</v>
+        <f>P5</f>
+        <v>8</v>
       </c>
       <c r="O5" s="14">
-        <v>0</v>
+        <f>P5</f>
+        <v>8</v>
       </c>
       <c r="P5" s="14">
         <f>Uren!$C$8</f>
@@ -1748,115 +1765,115 @@
       <c r="E6" s="26"/>
       <c r="F6" s="18">
         <f>C3</f>
-        <v>45035</v>
+        <v>45040</v>
       </c>
       <c r="G6" s="18">
         <f>F6+1</f>
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" ref="H6:AG6" si="0">G6+1</f>
-        <v>45037</v>
+        <v>45042</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
-        <v>45038</v>
+        <v>45043</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="0"/>
-        <v>45039</v>
+        <v>45044</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" ref="K6" si="1">J6+1</f>
-        <v>45040</v>
+        <v>45045</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" ref="L6" si="2">K6+1</f>
-        <v>45041</v>
+        <v>45046</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" si="0"/>
-        <v>45042</v>
+        <v>45047</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="0"/>
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="0"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="P6" s="18">
         <f t="shared" si="0"/>
-        <v>45045</v>
+        <v>45050</v>
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="0"/>
-        <v>45046</v>
+        <v>45051</v>
       </c>
       <c r="R6" s="18">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45052</v>
       </c>
       <c r="S6" s="18">
         <f t="shared" si="0"/>
-        <v>45048</v>
+        <v>45053</v>
       </c>
       <c r="T6" s="18">
         <f t="shared" si="0"/>
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="U6" s="18">
         <f t="shared" si="0"/>
-        <v>45050</v>
+        <v>45055</v>
       </c>
       <c r="V6" s="18">
         <f t="shared" si="0"/>
-        <v>45051</v>
+        <v>45056</v>
       </c>
       <c r="W6" s="18">
         <f t="shared" si="0"/>
-        <v>45052</v>
+        <v>45057</v>
       </c>
       <c r="X6" s="18">
         <f t="shared" si="0"/>
-        <v>45053</v>
+        <v>45058</v>
       </c>
       <c r="Y6" s="18">
         <f t="shared" si="0"/>
-        <v>45054</v>
+        <v>45059</v>
       </c>
       <c r="Z6" s="18">
         <f t="shared" si="0"/>
-        <v>45055</v>
+        <v>45060</v>
       </c>
       <c r="AA6" s="18">
         <f t="shared" si="0"/>
-        <v>45056</v>
+        <v>45061</v>
       </c>
       <c r="AB6" s="18">
         <f t="shared" si="0"/>
-        <v>45057</v>
+        <v>45062</v>
       </c>
       <c r="AC6" s="18">
         <f t="shared" si="0"/>
-        <v>45058</v>
+        <v>45063</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="0"/>
-        <v>45059</v>
+        <v>45064</v>
       </c>
       <c r="AE6" s="18">
         <f t="shared" si="0"/>
-        <v>45060</v>
+        <v>45065</v>
       </c>
       <c r="AF6" s="18">
         <f t="shared" si="0"/>
-        <v>45061</v>
+        <v>45066</v>
       </c>
       <c r="AG6" s="46">
         <f t="shared" si="0"/>
-        <v>45062</v>
+        <v>45067</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,12 +2021,12 @@
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="64">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="30">
         <f>IF($D9-SUM($E9:E9)&gt;F$5-SUM(F$7:F8),F$5-SUM(F$7:F8),$D9-SUM($E9:E9))</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="30">
         <f>IF($D9-SUM($E9:F9)&gt;G$5-SUM(G$7:G8),G$5-SUM(G$7:G8),$D9-SUM($E9:F9))</f>
@@ -2105,12 +2122,12 @@
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="64">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="30">
         <f>IF($D10-SUM($E10:E10)&gt;F$5-SUM(F$7:F9),F$5-SUM(F$7:F9),$D10-SUM($E10:E10))</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="30">
         <f>IF($D10-SUM($E10:F10)&gt;G$5-SUM(G$7:G9),G$5-SUM(G$7:G9),$D10-SUM($E10:F10))</f>
@@ -2206,12 +2223,12 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="64">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="30">
         <f>IF($D11-SUM($E11:E11)&gt;F$5-SUM(F$7:F10),F$5-SUM(F$7:F10),$D11-SUM($E11:E11))</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="30">
         <f>IF($D11-SUM($E11:F11)&gt;G$5-SUM(G$7:G10),G$5-SUM(G$7:G10),$D11-SUM($E11:F11))</f>
@@ -2307,16 +2324,16 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="30">
         <f>IF($D12-SUM($E12:E12)&gt;F$5-SUM(F$7:F11),F$5-SUM(F$7:F11),$D12-SUM($E12:E12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="30">
         <f>IF($D12-SUM($E12:F12)&gt;G$5-SUM(G$7:G11),G$5-SUM(G$7:G11),$D12-SUM($E12:F12))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="30">
         <f>IF($D12-SUM($E12:G12)&gt;H$5-SUM(H$7:H11),H$5-SUM(H$7:H11),$D12-SUM($E12:G12))</f>
@@ -2408,16 +2425,16 @@
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="30">
         <f>IF($D13-SUM($E13:E13)&gt;F$5-SUM(F$7:F12),F$5-SUM(F$7:F12),$D13-SUM($E13:E13))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="30">
         <f>IF($D13-SUM($E13:F13)&gt;G$5-SUM(G$7:G12),G$5-SUM(G$7:G12),$D13-SUM($E13:F13))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="30">
         <f>IF($D13-SUM($E13:G13)&gt;H$5-SUM(H$7:H12),H$5-SUM(H$7:H12),$D13-SUM($E13:G13))</f>
@@ -2509,16 +2526,16 @@
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="64">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="30">
         <f>IF($D14-SUM($E14:E14)&gt;F$5-SUM(F$7:F13),F$5-SUM(F$7:F13),$D14-SUM($E14:E14))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="30">
         <f>IF($D14-SUM($E14:F14)&gt;G$5-SUM(G$7:G13),G$5-SUM(G$7:G13),$D14-SUM($E14:F14))</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H14" s="30">
         <f>IF($D14-SUM($E14:G14)&gt;H$5-SUM(H$7:H13),H$5-SUM(H$7:H13),$D14-SUM($E14:G14))</f>
@@ -2608,10 +2625,10 @@
       <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22">
-        <v>45036</v>
-      </c>
-      <c r="D15" s="64"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="64">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="26"/>
       <c r="F15" s="30">
         <f>IF($D15-SUM($E15:E15)&gt;F$5-SUM(F$7:F14),F$5-SUM(F$7:F14),$D15-SUM($E15:E15))</f>
@@ -2619,7 +2636,7 @@
       </c>
       <c r="G15" s="30">
         <f>IF($D15-SUM($E15:F15)&gt;G$5-SUM(G$7:G14),G$5-SUM(G$7:G14),$D15-SUM($E15:F15))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="30">
         <f>IF($D15-SUM($E15:G15)&gt;H$5-SUM(H$7:H14),H$5-SUM(H$7:H14),$D15-SUM($E15:G15))</f>
@@ -2707,24 +2724,24 @@
         <v>9</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="64">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="30">
         <f>IF($D16-SUM($E16:E16)&gt;F$5-SUM(F$7:F15),F$5-SUM(F$7:F15),$D16-SUM($E16:E16))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G16" s="30">
         <f>IF($D16-SUM($E16:F16)&gt;G$5-SUM(G$7:G15),G$5-SUM(G$7:G15),$D16-SUM($E16:F16))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="30">
         <f>IF($D16-SUM($E16:G16)&gt;H$5-SUM(H$7:H15),H$5-SUM(H$7:H15),$D16-SUM($E16:G16))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="30">
         <f>IF($D16-SUM($E16:H16)&gt;I$5-SUM(I$7:I15),I$5-SUM(I$7:I15),$D16-SUM($E16:H16))</f>
@@ -2808,10 +2825,12 @@
         <v>10</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="64"/>
+      <c r="D17" s="64">
+        <v>35</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="30">
         <f>IF($D17-SUM($E17:E17)&gt;F$5-SUM(F$7:F16),F$5-SUM(F$7:F16),$D17-SUM($E17:E17))</f>
@@ -2823,7 +2842,7 @@
       </c>
       <c r="H17" s="30">
         <f>IF($D17-SUM($E17:G17)&gt;H$5-SUM(H$7:H16),H$5-SUM(H$7:H16),$D17-SUM($E17:G17))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="30">
         <f>IF($D17-SUM($E17:H17)&gt;I$5-SUM(I$7:I16),I$5-SUM(I$7:I16),$D17-SUM($E17:H17))</f>
@@ -2837,19 +2856,19 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30">
         <f>IF($D17-SUM($E17:L17)&gt;M$5-SUM(M$7:M16),M$5-SUM(M$7:M16),$D17-SUM($E17:L17))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N17" s="30">
         <f>IF($D17-SUM($E17:M17)&gt;N$5-SUM(N$7:N16),N$5-SUM(N$7:N16),$D17-SUM($E17:M17))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O17" s="30">
         <f>IF($D17-SUM($E17:N17)&gt;O$5-SUM(O$7:O16),O$5-SUM(O$7:O16),$D17-SUM($E17:N17))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P17" s="30">
         <f>IF($D17-SUM($E17:O17)&gt;P$5-SUM(P$7:P16),P$5-SUM(P$7:P16),$D17-SUM($E17:O17))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="30">
         <f>IF($D17-SUM($E17:P17)&gt;Q$5-SUM(Q$7:Q16),Q$5-SUM(Q$7:Q16),$D17-SUM($E17:P17))</f>
@@ -2906,9 +2925,13 @@
       <c r="A18" s="51">
         <v>11</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="64"/>
+      <c r="B18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="64">
+        <v>1</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="30">
         <f>IF($D18-SUM($E18:E18)&gt;F$5-SUM(F$7:F17),F$5-SUM(F$7:F17),$D18-SUM($E18:E18))</f>
@@ -2946,7 +2969,7 @@
       </c>
       <c r="P18" s="30">
         <f>IF($D18-SUM($E18:O18)&gt;P$5-SUM(P$7:P17),P$5-SUM(P$7:P17),$D18-SUM($E18:O18))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="30">
         <f>IF($D18-SUM($E18:P18)&gt;Q$5-SUM(Q$7:Q17),Q$5-SUM(Q$7:Q17),$D18-SUM($E18:P18))</f>
@@ -3003,9 +3026,13 @@
       <c r="A19" s="51">
         <v>12</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="64"/>
+      <c r="D19" s="64">
+        <v>1</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="30">
         <f>IF($D19-SUM($E19:E19)&gt;F$5-SUM(F$7:F18),F$5-SUM(F$7:F18),$D19-SUM($E19:E19))</f>
@@ -3043,7 +3070,7 @@
       </c>
       <c r="P19" s="30">
         <f>IF($D19-SUM($E19:O19)&gt;P$5-SUM(P$7:P18),P$5-SUM(P$7:P18),$D19-SUM($E19:O19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="30">
         <f>IF($D19-SUM($E19:P19)&gt;Q$5-SUM(Q$7:Q18),Q$5-SUM(Q$7:Q18),$D19-SUM($E19:P19))</f>
@@ -3100,9 +3127,13 @@
       <c r="A20" s="51">
         <v>13</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="64"/>
+      <c r="D20" s="64">
+        <v>1</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="30">
         <f>IF($D20-SUM($E20:E20)&gt;F$5-SUM(F$7:F19),F$5-SUM(F$7:F19),$D20-SUM($E20:E20))</f>
@@ -3140,7 +3171,7 @@
       </c>
       <c r="P20" s="30">
         <f>IF($D20-SUM($E20:O20)&gt;P$5-SUM(P$7:P19),P$5-SUM(P$7:P19),$D20-SUM($E20:O20))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="30">
         <f>IF($D20-SUM($E20:P20)&gt;Q$5-SUM(Q$7:Q19),Q$5-SUM(Q$7:Q19),$D20-SUM($E20:P20))</f>
@@ -3197,9 +3228,13 @@
       <c r="A21" s="51">
         <v>14</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="64"/>
+      <c r="D21" s="64">
+        <v>13</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="30">
         <f>IF($D21-SUM($E21:E21)&gt;F$5-SUM(F$7:F20),F$5-SUM(F$7:F20),$D21-SUM($E21:E21))</f>
@@ -3241,13 +3276,13 @@
       </c>
       <c r="Q21" s="30">
         <f>IF($D21-SUM($E21:P21)&gt;Q$5-SUM(Q$7:Q20),Q$5-SUM(Q$7:Q20),$D21-SUM($E21:P21))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R21" s="30"/>
       <c r="S21" s="30"/>
       <c r="T21" s="30">
         <f>IF($D21-SUM($E21:S21)&gt;T$5-SUM(T$7:T20),T$5-SUM(T$7:T20),$D21-SUM($E21:S21))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U21" s="30">
         <f>IF($D21-SUM($E21:T21)&gt;U$5-SUM(U$7:U20),U$5-SUM(U$7:U20),$D21-SUM($E21:T21))</f>
@@ -3294,9 +3329,13 @@
       <c r="A22" s="51">
         <v>15</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="64">
+        <v>3</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="30">
         <f>IF($D22-SUM($E22:E22)&gt;F$5-SUM(F$7:F21),F$5-SUM(F$7:F21),$D22-SUM($E22:E22))</f>
@@ -3344,7 +3383,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="30">
         <f>IF($D22-SUM($E22:S22)&gt;T$5-SUM(T$7:T21),T$5-SUM(T$7:T21),$D22-SUM($E22:S22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U22" s="30">
         <f>IF($D22-SUM($E22:T22)&gt;U$5-SUM(U$7:U21),U$5-SUM(U$7:U21),$D22-SUM($E22:T22))</f>
@@ -11694,7 +11733,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11778,6 +11817,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="30" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="028bf07d1ea5979ac6b1ce89894dfd29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3008ab1321543f27ae43808d75fd63db" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12066,48 +12131,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A630C4F3-F22D-4D5C-A63A-5DE6398746F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12131,9 +12158,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A630C4F3-F22D-4D5C-A63A-5DE6398746F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
+++ b/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-expansionict/Documents/PKstage/Examen Philip Klok/Examen_E-Expansion/Uitvoering Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1014CFB2-6CEC-2B44-8BD5-FA51F3B9C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9257D8-78A3-084F-9333-2C915F48E5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="2280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="10060" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Project:</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Activiteitendiagram</t>
-  </si>
-  <si>
-    <t>ERD (datamodel)</t>
   </si>
   <si>
     <t xml:space="preserve">Use Case </t>
@@ -1480,7 +1477,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2421,11 +2418,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="64">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="30">
@@ -2434,7 +2431,7 @@
       </c>
       <c r="G13" s="30">
         <f>IF($D13-SUM($E13:F13)&gt;G$5-SUM(G$7:G12),G$5-SUM(G$7:G12),$D13-SUM($E13:F13))</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H13" s="30">
         <f>IF($D13-SUM($E13:G13)&gt;H$5-SUM(H$7:H12),H$5-SUM(H$7:H12),$D13-SUM($E13:G13))</f>
@@ -2522,11 +2519,11 @@
         <v>7</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="64">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="30">
@@ -2535,7 +2532,7 @@
       </c>
       <c r="G14" s="30">
         <f>IF($D14-SUM($E14:F14)&gt;G$5-SUM(G$7:G13),G$5-SUM(G$7:G13),$D14-SUM($E14:F14))</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="30">
         <f>IF($D14-SUM($E14:G14)&gt;H$5-SUM(H$7:H13),H$5-SUM(H$7:H13),$D14-SUM($E14:G14))</f>
@@ -2623,11 +2620,11 @@
         <v>8</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="64">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="30">
@@ -2636,7 +2633,7 @@
       </c>
       <c r="G15" s="30">
         <f>IF($D15-SUM($E15:F15)&gt;G$5-SUM(G$7:G14),G$5-SUM(G$7:G14),$D15-SUM($E15:F15))</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="30">
         <f>IF($D15-SUM($E15:G15)&gt;H$5-SUM(H$7:H14),H$5-SUM(H$7:H14),$D15-SUM($E15:G15))</f>
@@ -2724,11 +2721,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="64">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="30">
@@ -2737,11 +2734,11 @@
       </c>
       <c r="G16" s="30">
         <f>IF($D16-SUM($E16:F16)&gt;G$5-SUM(G$7:G15),G$5-SUM(G$7:G15),$D16-SUM($E16:F16))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="30">
         <f>IF($D16-SUM($E16:G16)&gt;H$5-SUM(H$7:H15),H$5-SUM(H$7:H15),$D16-SUM($E16:G16))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I16" s="30">
         <f>IF($D16-SUM($E16:H16)&gt;I$5-SUM(I$7:I15),I$5-SUM(I$7:I15),$D16-SUM($E16:H16))</f>
@@ -2755,19 +2752,19 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30">
         <f>IF($D16-SUM($E16:L16)&gt;M$5-SUM(M$7:M15),M$5-SUM(M$7:M15),$D16-SUM($E16:L16))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N16" s="30">
         <f>IF($D16-SUM($E16:M16)&gt;N$5-SUM(N$7:N15),N$5-SUM(N$7:N15),$D16-SUM($E16:M16))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O16" s="30">
         <f>IF($D16-SUM($E16:N16)&gt;O$5-SUM(O$7:O15),O$5-SUM(O$7:O15),$D16-SUM($E16:N16))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P16" s="30">
         <f>IF($D16-SUM($E16:O16)&gt;P$5-SUM(P$7:P15),P$5-SUM(P$7:P15),$D16-SUM($E16:O16))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="30">
         <f>IF($D16-SUM($E16:P16)&gt;Q$5-SUM(Q$7:Q15),Q$5-SUM(Q$7:Q15),$D16-SUM($E16:P16))</f>
@@ -2825,11 +2822,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="64">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="30">
@@ -2842,7 +2839,7 @@
       </c>
       <c r="H17" s="30">
         <f>IF($D17-SUM($E17:G17)&gt;H$5-SUM(H$7:H16),H$5-SUM(H$7:H16),$D17-SUM($E17:G17))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="30">
         <f>IF($D17-SUM($E17:H17)&gt;I$5-SUM(I$7:I16),I$5-SUM(I$7:I16),$D17-SUM($E17:H17))</f>
@@ -2856,19 +2853,19 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30">
         <f>IF($D17-SUM($E17:L17)&gt;M$5-SUM(M$7:M16),M$5-SUM(M$7:M16),$D17-SUM($E17:L17))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N17" s="30">
         <f>IF($D17-SUM($E17:M17)&gt;N$5-SUM(N$7:N16),N$5-SUM(N$7:N16),$D17-SUM($E17:M17))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O17" s="30">
         <f>IF($D17-SUM($E17:N17)&gt;O$5-SUM(O$7:O16),O$5-SUM(O$7:O16),$D17-SUM($E17:N17))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P17" s="30">
         <f>IF($D17-SUM($E17:O17)&gt;P$5-SUM(P$7:P16),P$5-SUM(P$7:P16),$D17-SUM($E17:O17))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="30">
         <f>IF($D17-SUM($E17:P17)&gt;Q$5-SUM(Q$7:Q16),Q$5-SUM(Q$7:Q16),$D17-SUM($E17:P17))</f>
@@ -2926,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="64">
@@ -3132,7 +3129,7 @@
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="64">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="30">
@@ -3171,17 +3168,17 @@
       </c>
       <c r="P20" s="30">
         <f>IF($D20-SUM($E20:O20)&gt;P$5-SUM(P$7:P19),P$5-SUM(P$7:P19),$D20-SUM($E20:O20))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="30">
         <f>IF($D20-SUM($E20:P20)&gt;Q$5-SUM(Q$7:Q19),Q$5-SUM(Q$7:Q19),$D20-SUM($E20:P20))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="30"/>
       <c r="S20" s="30"/>
       <c r="T20" s="30">
         <f>IF($D20-SUM($E20:S20)&gt;T$5-SUM(T$7:T19),T$5-SUM(T$7:T19),$D20-SUM($E20:S20))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U20" s="30">
         <f>IF($D20-SUM($E20:T20)&gt;U$5-SUM(U$7:U19),U$5-SUM(U$7:U19),$D20-SUM($E20:T20))</f>
@@ -3233,7 +3230,7 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="64">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="30">
@@ -3276,13 +3273,13 @@
       </c>
       <c r="Q21" s="30">
         <f>IF($D21-SUM($E21:P21)&gt;Q$5-SUM(Q$7:Q20),Q$5-SUM(Q$7:Q20),$D21-SUM($E21:P21))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R21" s="30"/>
       <c r="S21" s="30"/>
       <c r="T21" s="30">
         <f>IF($D21-SUM($E21:S21)&gt;T$5-SUM(T$7:T20),T$5-SUM(T$7:T20),$D21-SUM($E21:S21))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U21" s="30">
         <f>IF($D21-SUM($E21:T21)&gt;U$5-SUM(U$7:U20),U$5-SUM(U$7:U20),$D21-SUM($E21:T21))</f>
@@ -3329,13 +3326,9 @@
       <c r="A22" s="51">
         <v>15</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="64">
-        <v>3</v>
-      </c>
+      <c r="D22" s="64"/>
       <c r="E22" s="26"/>
       <c r="F22" s="30">
         <f>IF($D22-SUM($E22:E22)&gt;F$5-SUM(F$7:F21),F$5-SUM(F$7:F21),$D22-SUM($E22:E22))</f>
@@ -3383,7 +3376,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="30">
         <f>IF($D22-SUM($E22:S22)&gt;T$5-SUM(T$7:T21),T$5-SUM(T$7:T21),$D22-SUM($E22:S22))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22" s="30">
         <f>IF($D22-SUM($E22:T22)&gt;U$5-SUM(U$7:U21),U$5-SUM(U$7:U21),$D22-SUM($E22:T22))</f>
@@ -11826,23 +11819,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="30" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="028bf07d1ea5979ac6b1ce89894dfd29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3008ab1321543f27ae43808d75fd63db" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12131,6 +12107,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
   <ds:schemaRefs>
@@ -12140,24 +12133,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A630C4F3-F22D-4D5C-A63A-5DE6398746F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12175,4 +12150,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
+++ b/Uitvoering Documenten/85866_PhilipKlok_ExPVB25604_Strokenplanning_Pog1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e-expansionict/Documents/PKstage/Examen Philip Klok/Examen_E-Expansion/Uitvoering Documenten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9257D8-78A3-084F-9333-2C915F48E5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AB674B-3E2A-2B4F-BEB2-4AA9E9D2EA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="10060" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26100" yWindow="500" windowWidth="18700" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Project:</t>
   </si>
@@ -313,13 +313,25 @@
     <t>Examenportfolio uitwerken</t>
   </si>
   <si>
-    <t xml:space="preserve">Multi-Step form uitwerken </t>
-  </si>
-  <si>
     <t>Multi-Step form informatie verzamelen</t>
   </si>
   <si>
     <t>Multi-Step form gereed</t>
+  </si>
+  <si>
+    <t>Multi-Step form start</t>
+  </si>
+  <si>
+    <t>Multi-Step form opmaak stap 1 en stap 2</t>
+  </si>
+  <si>
+    <t>Multi-Step form Knoppen functioneel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Step form Resultaat geprogrammeerd </t>
+  </si>
+  <si>
+    <t>Multi-Step form errors + comments</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1486,10 @@
   <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2620,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="64">
@@ -2721,11 +2733,11 @@
         <v>9</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="64">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="30">
@@ -2738,7 +2750,7 @@
       </c>
       <c r="H16" s="30">
         <f>IF($D16-SUM($E16:G16)&gt;H$5-SUM(H$7:H15),H$5-SUM(H$7:H15),$D16-SUM($E16:G16))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I16" s="30">
         <f>IF($D16-SUM($E16:H16)&gt;I$5-SUM(I$7:I15),I$5-SUM(I$7:I15),$D16-SUM($E16:H16))</f>
@@ -2752,19 +2764,19 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30">
         <f>IF($D16-SUM($E16:L16)&gt;M$5-SUM(M$7:M15),M$5-SUM(M$7:M15),$D16-SUM($E16:L16))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N16" s="30">
         <f>IF($D16-SUM($E16:M16)&gt;N$5-SUM(N$7:N15),N$5-SUM(N$7:N15),$D16-SUM($E16:M16))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16" s="30">
         <f>IF($D16-SUM($E16:N16)&gt;O$5-SUM(O$7:O15),O$5-SUM(O$7:O15),$D16-SUM($E16:N16))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P16" s="30">
         <f>IF($D16-SUM($E16:O16)&gt;P$5-SUM(P$7:P15),P$5-SUM(P$7:P15),$D16-SUM($E16:O16))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="30">
         <f>IF($D16-SUM($E16:P16)&gt;Q$5-SUM(Q$7:Q15),Q$5-SUM(Q$7:Q15),$D16-SUM($E16:P16))</f>
@@ -2822,11 +2834,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="30">
@@ -2839,7 +2851,7 @@
       </c>
       <c r="H17" s="30">
         <f>IF($D17-SUM($E17:G17)&gt;H$5-SUM(H$7:H16),H$5-SUM(H$7:H16),$D17-SUM($E17:G17))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="30">
         <f>IF($D17-SUM($E17:H17)&gt;I$5-SUM(I$7:I16),I$5-SUM(I$7:I16),$D17-SUM($E17:H17))</f>
@@ -2853,7 +2865,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30">
         <f>IF($D17-SUM($E17:L17)&gt;M$5-SUM(M$7:M16),M$5-SUM(M$7:M16),$D17-SUM($E17:L17))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="30">
         <f>IF($D17-SUM($E17:M17)&gt;N$5-SUM(N$7:N16),N$5-SUM(N$7:N16),$D17-SUM($E17:M17))</f>
@@ -2865,7 +2877,7 @@
       </c>
       <c r="P17" s="30">
         <f>IF($D17-SUM($E17:O17)&gt;P$5-SUM(P$7:P16),P$5-SUM(P$7:P16),$D17-SUM($E17:O17))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="30">
         <f>IF($D17-SUM($E17:P17)&gt;Q$5-SUM(Q$7:Q16),Q$5-SUM(Q$7:Q16),$D17-SUM($E17:P17))</f>
@@ -2923,11 +2935,11 @@
         <v>11</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="64">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="30">
@@ -2954,11 +2966,11 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30">
         <f>IF($D18-SUM($E18:L18)&gt;M$5-SUM(M$7:M17),M$5-SUM(M$7:M17),$D18-SUM($E18:L18))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N18" s="30">
         <f>IF($D18-SUM($E18:M18)&gt;N$5-SUM(N$7:N17),N$5-SUM(N$7:N17),$D18-SUM($E18:M18))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="30">
         <f>IF($D18-SUM($E18:N18)&gt;O$5-SUM(O$7:O17),O$5-SUM(O$7:O17),$D18-SUM($E18:N18))</f>
@@ -2966,7 +2978,7 @@
       </c>
       <c r="P18" s="30">
         <f>IF($D18-SUM($E18:O18)&gt;P$5-SUM(P$7:P17),P$5-SUM(P$7:P17),$D18-SUM($E18:O18))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="30">
         <f>IF($D18-SUM($E18:P18)&gt;Q$5-SUM(Q$7:Q17),Q$5-SUM(Q$7:Q17),$D18-SUM($E18:P18))</f>
@@ -3024,11 +3036,11 @@
         <v>12</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="30">
@@ -3059,7 +3071,7 @@
       </c>
       <c r="N19" s="30">
         <f>IF($D19-SUM($E19:M19)&gt;N$5-SUM(N$7:N18),N$5-SUM(N$7:N18),$D19-SUM($E19:M19))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="30">
         <f>IF($D19-SUM($E19:N19)&gt;O$5-SUM(O$7:O18),O$5-SUM(O$7:O18),$D19-SUM($E19:N19))</f>
@@ -3067,7 +3079,7 @@
       </c>
       <c r="P19" s="30">
         <f>IF($D19-SUM($E19:O19)&gt;P$5-SUM(P$7:P18),P$5-SUM(P$7:P18),$D19-SUM($E19:O19))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="30">
         <f>IF($D19-SUM($E19:P19)&gt;Q$5-SUM(Q$7:Q18),Q$5-SUM(Q$7:Q18),$D19-SUM($E19:P19))</f>
@@ -3125,11 +3137,11 @@
         <v>13</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="64">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="30">
@@ -3160,25 +3172,25 @@
       </c>
       <c r="N20" s="30">
         <f>IF($D20-SUM($E20:M20)&gt;N$5-SUM(N$7:N19),N$5-SUM(N$7:N19),$D20-SUM($E20:M20))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="30">
         <f>IF($D20-SUM($E20:N20)&gt;O$5-SUM(O$7:O19),O$5-SUM(O$7:O19),$D20-SUM($E20:N20))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P20" s="30">
         <f>IF($D20-SUM($E20:O20)&gt;P$5-SUM(P$7:P19),P$5-SUM(P$7:P19),$D20-SUM($E20:O20))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="30">
         <f>IF($D20-SUM($E20:P20)&gt;Q$5-SUM(Q$7:Q19),Q$5-SUM(Q$7:Q19),$D20-SUM($E20:P20))</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R20" s="30"/>
       <c r="S20" s="30"/>
       <c r="T20" s="30">
         <f>IF($D20-SUM($E20:S20)&gt;T$5-SUM(T$7:T19),T$5-SUM(T$7:T19),$D20-SUM($E20:S20))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U20" s="30">
         <f>IF($D20-SUM($E20:T20)&gt;U$5-SUM(U$7:U19),U$5-SUM(U$7:U19),$D20-SUM($E20:T20))</f>
@@ -3226,11 +3238,11 @@
         <v>14</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="64">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="30">
@@ -3265,7 +3277,7 @@
       </c>
       <c r="O21" s="30">
         <f>IF($D21-SUM($E21:N21)&gt;O$5-SUM(O$7:O20),O$5-SUM(O$7:O20),$D21-SUM($E21:N21))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P21" s="30">
         <f>IF($D21-SUM($E21:O21)&gt;P$5-SUM(P$7:P20),P$5-SUM(P$7:P20),$D21-SUM($E21:O21))</f>
@@ -3279,7 +3291,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="30">
         <f>IF($D21-SUM($E21:S21)&gt;T$5-SUM(T$7:T20),T$5-SUM(T$7:T20),$D21-SUM($E21:S21))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U21" s="30">
         <f>IF($D21-SUM($E21:T21)&gt;U$5-SUM(U$7:U20),U$5-SUM(U$7:U20),$D21-SUM($E21:T21))</f>
@@ -3326,9 +3338,13 @@
       <c r="A22" s="51">
         <v>15</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="64">
+        <v>4</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="30">
         <f>IF($D22-SUM($E22:E22)&gt;F$5-SUM(F$7:F21),F$5-SUM(F$7:F21),$D22-SUM($E22:E22))</f>
@@ -3362,11 +3378,11 @@
       </c>
       <c r="O22" s="30">
         <f>IF($D22-SUM($E22:N22)&gt;O$5-SUM(O$7:O21),O$5-SUM(O$7:O21),$D22-SUM($E22:N22))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P22" s="30">
         <f>IF($D22-SUM($E22:O22)&gt;P$5-SUM(P$7:P21),P$5-SUM(P$7:P21),$D22-SUM($E22:O22))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" s="30">
         <f>IF($D22-SUM($E22:P22)&gt;Q$5-SUM(Q$7:Q21),Q$5-SUM(Q$7:Q21),$D22-SUM($E22:P22))</f>
@@ -3423,9 +3439,13 @@
       <c r="A23" s="51">
         <v>16</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="21"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="64">
+        <v>5</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="30">
         <f>IF($D23-SUM($E23:E23)&gt;F$5-SUM(F$7:F22),F$5-SUM(F$7:F22),$D23-SUM($E23:E23))</f>
@@ -3463,11 +3483,11 @@
       </c>
       <c r="P23" s="30">
         <f>IF($D23-SUM($E23:O23)&gt;P$5-SUM(P$7:P22),P$5-SUM(P$7:P22),$D23-SUM($E23:O23))</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" s="30">
         <f>IF($D23-SUM($E23:P23)&gt;Q$5-SUM(Q$7:Q22),Q$5-SUM(Q$7:Q22),$D23-SUM($E23:P23))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="30"/>
       <c r="S23" s="30"/>
@@ -3520,9 +3540,13 @@
       <c r="A24" s="51">
         <v>17</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="64"/>
+      <c r="D24" s="64">
+        <v>10</v>
+      </c>
       <c r="E24" s="26"/>
       <c r="F24" s="30">
         <f>IF($D24-SUM($E24:E24)&gt;F$5-SUM(F$7:F23),F$5-SUM(F$7:F23),$D24-SUM($E24:E24))</f>
@@ -3564,13 +3588,13 @@
       </c>
       <c r="Q24" s="30">
         <f>IF($D24-SUM($E24:P24)&gt;Q$5-SUM(Q$7:Q23),Q$5-SUM(Q$7:Q23),$D24-SUM($E24:P24))</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="30"/>
       <c r="T24" s="30">
         <f>IF($D24-SUM($E24:S24)&gt;T$5-SUM(T$7:T23),T$5-SUM(T$7:T23),$D24-SUM($E24:S24))</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U24" s="30">
         <f>IF($D24-SUM($E24:T24)&gt;U$5-SUM(U$7:U23),U$5-SUM(U$7:U23),$D24-SUM($E24:T24))</f>
@@ -3617,9 +3641,13 @@
       <c r="A25" s="51">
         <v>18</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="64"/>
+      <c r="D25" s="64">
+        <v>5.5</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="30">
         <f>IF($D25-SUM($E25:E25)&gt;F$5-SUM(F$7:F24),F$5-SUM(F$7:F24),$D25-SUM($E25:E25))</f>
@@ -3667,7 +3695,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="30">
         <f>IF($D25-SUM($E25:S25)&gt;T$5-SUM(T$7:T24),T$5-SUM(T$7:T24),$D25-SUM($E25:S25))</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="U25" s="30">
         <f>IF($D25-SUM($E25:T25)&gt;U$5-SUM(U$7:U24),U$5-SUM(U$7:U24),$D25-SUM($E25:T25))</f>
@@ -11810,12 +11838,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12108,26 +12144,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e" xsi:nil="true"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12153,19 +12191,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>